--- a/doc/测试用例/数据化运营平台测试用例.xlsx
+++ b/doc/测试用例/数据化运营平台测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="5640" tabRatio="483" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7320" tabRatio="483" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -18,114 +18,143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+  <si>
+    <t xml:space="preserve"> 永辉数据化运营平台测试用例</t>
+  </si>
   <si>
     <t>使用范围</t>
   </si>
   <si>
+    <t>数据化运营平台</t>
+  </si>
+  <si>
     <t>版本号</t>
   </si>
   <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
     <t>撰写人</t>
   </si>
   <si>
+    <t>张海</t>
+  </si>
+  <si>
     <t>撰写时间</t>
   </si>
   <si>
     <t>修订记录</t>
   </si>
   <si>
+    <t>张海/2017/05/22</t>
+  </si>
+  <si>
     <t>模块</t>
   </si>
   <si>
+    <t>功能</t>
+  </si>
+  <si>
     <t>接口版本</t>
   </si>
   <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张海</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张海/2017/05/22</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据化运营平台</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>用例</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>前置条件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>失败原因</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>注册注册动作</t>
+  </si>
+  <si>
+    <t>存在用户工号</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>用户登录动作</t>
   </si>
   <si>
     <t>生鲜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售概况（其他两个概况类似）</t>
+  </si>
+  <si>
+    <t>1.图表三个维度可切换 2.选择日期和集群显示第一张表格，表格下商行字段可展开，点击商行列钻取下张表格，依此类推 3.表格下钻均点击表格第一列</t>
+  </si>
+  <si>
+    <t>第一张表格要有数据，否则无法钻取</t>
+  </si>
+  <si>
+    <t>单品销售（其他两个单品类似）</t>
+  </si>
+  <si>
+    <t>1.选择日期、大区、课组必选，场景可选，查询第一张表格2.点击第一列钻取下张表格数据</t>
+  </si>
+  <si>
+    <t>明细导出</t>
+  </si>
+  <si>
+    <t>当前对应表格的所有数据</t>
+  </si>
+  <si>
+    <t>买手销售</t>
+  </si>
+  <si>
+    <t>目前只有干货课下面有数据</t>
+  </si>
+  <si>
+    <t>课组选择干货课</t>
+  </si>
+  <si>
+    <t>码头商品</t>
+  </si>
+  <si>
+    <t>日期课组必选，单品可选。选择日期和课组时:三
+张表格均有数据，填写单品时只到第一张表格后两张表格无数据（后期会做成隐藏）</t>
+  </si>
+  <si>
+    <t>干货物流库存、指标定义、平台介绍</t>
+  </si>
+  <si>
+    <t>待开发</t>
   </si>
   <si>
     <t>赛马</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册注册动作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录动作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在用户工号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 永辉数据化运营平台测试用例</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -133,88 +162,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="49"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,14 +231,18 @@
       <sz val="12"/>
       <color indexed="17"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -237,56 +250,185 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="49"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +437,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,30 +467,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -364,7 +686,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -377,12 +701,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -457,252 +790,449 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="31" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="47" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="8" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差 2" xfId="3"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="差 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1036,70 +1566,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11" style="35" customWidth="1"/>
+    <col min="2" max="2" width="37.3727272727273" style="35" customWidth="1"/>
+    <col min="3" max="3" width="41.7545454545455" style="35" customWidth="1"/>
+    <col min="4" max="4" width="30.1272727272727" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+    <row r="1" s="34" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
-    <row r="2" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
+    <row r="2" customHeight="1" spans="2:3">
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" customHeight="1" spans="2:3">
+      <c r="B3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="41">
+        <v>42876</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1107,203 +1638,259 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="2.75" style="35" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="26" customWidth="1"/>
-    <col min="10" max="10" width="30.5" style="26" customWidth="1"/>
-    <col min="11" max="11" width="46" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="15.2545454545455" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1272727272727" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.75454545454545" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="96.4727272727273" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.8545454545455" style="7" customWidth="1"/>
+    <col min="6" max="6" width="1.49090909090909" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1272727272727" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.7545454545455" style="9" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="46" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="40" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" s="1" customFormat="1" ht="48.75" customHeight="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="14" t="s">
+      <c r="E3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="61" customHeight="1" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
-    <row r="3" spans="1:11" s="20" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+    <row r="5" s="3" customFormat="1" ht="80" customHeight="1" spans="1:11">
+      <c r="A5" s="27"/>
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+    <row r="8" s="3" customFormat="1" ht="69" customHeight="1" spans="1:11">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+    <row r="9" s="3" customFormat="1" ht="81" customHeight="1" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A11" s="31"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/测试用例/数据化运营平台测试用例.xlsx
+++ b/doc/测试用例/数据化运营平台测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7320" tabRatio="483" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="483" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t xml:space="preserve"> 永辉数据化运营平台测试用例</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>赛马</t>
+  </si>
+  <si>
+    <t>元数据</t>
   </si>
 </sst>
 </file>
@@ -149,12 +152,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -285,31 +288,123 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,113 +417,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,13 +463,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,169 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +775,45 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +842,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -839,195 +865,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,17 +1014,17 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,9 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,11 +1205,6 @@
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1576,61 +1546,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11" style="35" customWidth="1"/>
-    <col min="2" max="2" width="37.3727272727273" style="35" customWidth="1"/>
-    <col min="3" max="3" width="41.7545454545455" style="35" customWidth="1"/>
-    <col min="4" max="4" width="30.1272727272727" style="35" customWidth="1"/>
-    <col min="5" max="5" width="21" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="11" style="34" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="41.7583333333333" style="34" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="21" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37" t="s">
+    <row r="1" s="33" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" customHeight="1" spans="2:3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>42876</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1647,25 +1617,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.2545454545455" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.1272727272727" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.75454545454545" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="96.4727272727273" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.8545454545455" style="7" customWidth="1"/>
-    <col min="6" max="6" width="1.49090909090909" style="7" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.2583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.75833333333333" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="96.475" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.8583333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="1.49166666666667" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="4.6" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1272727272727" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.7545454545455" style="9" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.7583333333333" style="9" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="46" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
@@ -1721,9 +1691,9 @@
       <c r="H2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="20"/>
@@ -1742,9 +1712,9 @@
       <c r="H3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="61" customHeight="1" spans="1:11">
       <c r="A4" s="21" t="s">
@@ -1763,9 +1733,9 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="80" customHeight="1" spans="1:11">
       <c r="A5" s="27"/>
@@ -1780,9 +1750,9 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A6" s="27"/>
@@ -1797,9 +1767,9 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A7" s="27"/>
@@ -1816,9 +1786,9 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A8" s="29"/>
@@ -1833,16 +1803,16 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="81" customHeight="1" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
@@ -1850,9 +1820,9 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="13" t="s">
@@ -1865,12 +1835,12 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
@@ -1878,9 +1848,14 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/测试用例/数据化运营平台测试用例.xlsx
+++ b/doc/测试用例/数据化运营平台测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="483" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="483" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve"> 永辉数据化运营平台测试用例</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>用户登录</t>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>注册注册动作</t>
   </si>
   <si>
     <t>存在用户工号</t>
@@ -150,14 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -282,143 +270,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,7 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,55 +319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,128 +329,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -767,264 +461,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,13 +501,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="31" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,9 +519,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1076,13 +528,68 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,120 +598,30 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="7" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
+    <cellStyle name="差 2" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="差 2" xfId="50"/>
-    <cellStyle name="常规 2" xfId="51"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1536,71 +953,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="34" customWidth="1"/>
-    <col min="2" max="2" width="37.375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="41.7583333333333" style="34" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="21" style="34" customWidth="1"/>
-    <col min="6" max="6" width="11" style="34" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="11" style="28" customWidth="1"/>
+    <col min="2" max="2" width="37.375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="28" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29"/>
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" customHeight="1" spans="2:3">
-      <c r="B2" s="38" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="32">
         <v>42876</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1608,40 +1024,38 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.2583333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.75833333333333" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="96.475" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.8583333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="1.49166666666667" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.75" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="96.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="7" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.7583333333333" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="9" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="46" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48.75" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1654,11 +1068,11 @@
       <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1672,189 +1086,181 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="61" customHeight="1" spans="1:11">
-      <c r="A4" s="21" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="80" customHeight="1" spans="1:11">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40"/>
+      <c r="B6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="40"/>
+      <c r="B7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="16" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
+      <c r="E7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="69" customHeight="1" spans="1:11">
-      <c r="A8" s="29"/>
-      <c r="B8" s="28" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="81" customHeight="1" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="22" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A11" s="30"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1864,8 +1270,8 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/测试用例/数据化运营平台测试用例.xlsx
+++ b/doc/测试用例/数据化运营平台测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="483" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7320" tabRatio="483" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">第一阶段测试用例!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t xml:space="preserve"> 永辉数据化运营平台测试用例</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>用户登录</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>注册注册动作</t>
   </si>
   <si>
     <t>存在用户工号</t>
@@ -138,14 +144,68 @@
     <t>赛马</t>
   </si>
   <si>
-    <t>元数据</t>
+    <t>门店成绩查询</t>
+  </si>
+  <si>
+    <t>成绩查询按门店和品类教练，成绩解读 选择相应条件查询出对应的信息；历史趋势待开发</t>
+  </si>
+  <si>
+    <t>汇总、明细导出</t>
+  </si>
+  <si>
+    <t>查询出来的结果可以导出成excel</t>
+  </si>
+  <si>
+    <t>门店天天赛马</t>
+  </si>
+  <si>
+    <t>选择区域，小店，门店查询相应的数据</t>
+  </si>
+  <si>
+    <t>门店赛马预警</t>
+  </si>
+  <si>
+    <t>根据条件查询相应的信息，如果”亮红灯“，需要相关人员双击”红灯“将其”熄灭“</t>
+  </si>
+  <si>
+    <t>门店赛马培训复盘</t>
+  </si>
+  <si>
+    <t>方便查看相应的文档</t>
+  </si>
+  <si>
+    <t>区总赛马成绩查询</t>
+  </si>
+  <si>
+    <t>选择区域，月份查询相应的数据</t>
+  </si>
+  <si>
+    <t>区总天天赛马</t>
+  </si>
+  <si>
+    <t>选择区域查询（月至今数据）</t>
+  </si>
+  <si>
+    <t>区总赛马培训文档</t>
+  </si>
+  <si>
+    <t>赛马数据导入</t>
+  </si>
+  <si>
+    <t>分为营运标准分，收银准确性，人才梯队三个模块，流程大致一直。默认只能导入上月数据（并且选择的区域已经导入过数据的是不能再次导入）。需要按照指定的模板填写纯数字内容，不能重复，不能为空。导入成功的数据只能删除。每月定时对数据进行确认，确认后不能再进行其他操作。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,18 +329,144 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,7 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +505,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,8 +677,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -461,25 +815,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,13 +1094,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="31" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="47" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="47" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,6 +1112,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -528,14 +1124,20 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -546,19 +1148,28 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,6 +1179,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,42 +1197,61 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="差 2" xfId="3"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中 2" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="47"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="差 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -953,70 +1589,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="80.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11" style="28" customWidth="1"/>
-    <col min="2" max="2" width="37.375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="28" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="11" style="34" customWidth="1"/>
+    <col min="2" max="2" width="37.3727272727273" style="34" customWidth="1"/>
+    <col min="3" max="3" width="41.7545454545455" style="34" customWidth="1"/>
+    <col min="4" max="4" width="30.1272727272727" style="34" customWidth="1"/>
+    <col min="5" max="5" width="21" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29"/>
-      <c r="B1" s="34" t="s">
+    <row r="1" s="33" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="30" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:3">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+    <row r="3" customHeight="1" spans="2:3">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="40">
         <v>42876</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="33" t="s">
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1024,38 +1661,40 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.75" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="96.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="1.5" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.2545454545455" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1272727272727" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.75454545454545" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="96.4727272727273" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.8545454545455" style="7" customWidth="1"/>
+    <col min="6" max="6" width="1.49090909090909" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1272727272727" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.7545454545455" style="9" customWidth="1"/>
     <col min="10" max="10" width="30.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="46" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="48.75" customHeight="1" spans="1:11">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1068,11 +1707,11 @@
       <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1086,192 +1725,322 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="13" t="s">
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="61" customHeight="1" spans="1:11">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="19" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="E4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="24" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="80" customHeight="1" spans="1:11">
+      <c r="A5" s="27"/>
+      <c r="B5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="15" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="24" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="15" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="69" customHeight="1" spans="1:11">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="81" customHeight="1" spans="1:11">
       <c r="A9" s="4"/>
-      <c r="B9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37" t="s">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:11">
+      <c r="A10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A11" s="30"/>
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A12" s="30"/>
+      <c r="B12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A13" s="30"/>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A14" s="30"/>
+      <c r="B14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A15" s="30"/>
+      <c r="B15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A16" s="30"/>
+      <c r="B16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A17" s="30"/>
+      <c r="B17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="138" customHeight="1" spans="1:11">
+      <c r="A18" s="30"/>
+      <c r="B18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A10:A18"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>